--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-029 - Penyelia SRM Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-029 - Penyelia SRM Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C1CC7-1CFA-4F4E-BEC3-5705078E1248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F6B12-AD89-420A-ABA3-A995675A2DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0198" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,9 +101,6 @@
     <t>Penyelia SRM</t>
   </si>
   <si>
-    <t>DGS-213</t>
-  </si>
-  <si>
     <t>1. login digisales portal dengan penyelia SRM 37400
 2. buka menu product holding
 3. isi field npp sales sendiri dengan 39798, dengan field tahun, bulan, dan jenis nasabah  (tahun 2022 bulan februari) 
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>SCD0011-029</t>
   </si>
 </sst>
 </file>
@@ -528,13 +528,13 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -624,16 +624,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="12">
         <v>37400</v>
@@ -660,7 +660,7 @@
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>17</v>
